--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,94 +412,65 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>612f8bc5dd2a9027f4418ffa</v>
+        <v>612f99173155ac36b8386345</v>
       </c>
       <c r="B2" t="str">
-        <v>192.168.1.7</v>
+        <v>192.168.100.7</v>
       </c>
       <c r="C2" t="str">
         <v>22</v>
       </c>
       <c r="D2" t="str">
-        <v>12</v>
+        <v>server</v>
       </c>
       <c r="E2" t="str">
-        <v>1234</v>
+        <v>hung</v>
       </c>
       <c r="F2" t="str">
-        <v>Hung!123</v>
+        <v>123456</v>
       </c>
       <c r="G2" t="str">
         <v>Off</v>
       </c>
       <c r="H2" s="1">
-        <v>44440.596354166664</v>
+        <v>44440.63582175926</v>
       </c>
       <c r="I2" s="1">
-        <v>44440.596354166664</v>
+        <v>44440.63582175926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>612f8bc6dd2a9027f4418fff</v>
+        <v>612f99193155ac36b838634a</v>
       </c>
       <c r="B3" t="str">
-        <v>192.168.1.7</v>
+        <v>192.168.100.7</v>
       </c>
       <c r="C3" t="str">
         <v>22</v>
       </c>
       <c r="D3" t="str">
-        <v>12</v>
+        <v>server</v>
       </c>
       <c r="E3" t="str">
-        <v>1234</v>
+        <v>hung</v>
       </c>
       <c r="F3" t="str">
-        <v>Hung!123</v>
+        <v>123456</v>
       </c>
       <c r="G3" t="str">
         <v>Off</v>
       </c>
       <c r="H3" s="1">
-        <v>44440.59636574074</v>
+        <v>44440.63584490741</v>
       </c>
       <c r="I3" s="1">
-        <v>44440.59636574074</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>612f8bc9dd2a9027f4419004</v>
-      </c>
-      <c r="B4" t="str">
-        <v>192.168.1.7</v>
-      </c>
-      <c r="C4" t="str">
-        <v>22</v>
-      </c>
-      <c r="D4" t="str">
-        <v>12</v>
-      </c>
-      <c r="E4" t="str">
-        <v>1234</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Hung!123</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Off</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44440.596400462964</v>
-      </c>
-      <c r="I4" s="1">
-        <v>44440.596400462964</v>
+        <v>44440.63584490741</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,9 +468,67 @@
         <v>44440.63584490741</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>613046aa07a0523de0be3517</v>
+      </c>
+      <c r="B4" t="str">
+        <v>192.168.100.7</v>
+      </c>
+      <c r="C4" t="str">
+        <v>22</v>
+      </c>
+      <c r="D4" t="str">
+        <v>hung</v>
+      </c>
+      <c r="E4" t="str">
+        <v>hung</v>
+      </c>
+      <c r="F4" t="str">
+        <v>123456</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44441.15011574074</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44441.15011574074</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>613046bd07a0523de0be351e</v>
+      </c>
+      <c r="B5" t="str">
+        <v>192.168.1.100</v>
+      </c>
+      <c r="C5" t="str">
+        <v>23</v>
+      </c>
+      <c r="D5" t="str">
+        <v>12345</v>
+      </c>
+      <c r="E5" t="str">
+        <v>12</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1234</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44441.15033564815</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44441.15033564815</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -412,36 +412,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>612f99173155ac36b8386345</v>
+        <v>613046bd07a0523de0be351e</v>
       </c>
       <c r="B2" t="str">
-        <v>192.168.100.7</v>
+        <v>192.168.1.100</v>
       </c>
       <c r="C2" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="str">
-        <v>server</v>
+        <v>12345</v>
       </c>
       <c r="E2" t="str">
-        <v>hung</v>
+        <v>12</v>
       </c>
       <c r="F2" t="str">
-        <v>123456</v>
+        <v>1234</v>
       </c>
       <c r="G2" t="str">
         <v>Off</v>
       </c>
       <c r="H2" s="1">
-        <v>44440.63582175926</v>
+        <v>44441.15033564815</v>
       </c>
       <c r="I2" s="1">
-        <v>44440.63582175926</v>
+        <v>44441.15033564815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>612f99193155ac36b838634a</v>
+        <v>6130859352505419f088e21a</v>
       </c>
       <c r="B3" t="str">
         <v>192.168.100.7</v>
@@ -450,7 +450,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="str">
-        <v>server</v>
+        <v>server-2</v>
       </c>
       <c r="E3" t="str">
         <v>hung</v>
@@ -462,15 +462,15 @@
         <v>Off</v>
       </c>
       <c r="H3" s="1">
-        <v>44440.63584490741</v>
+        <v>44441.3365162037</v>
       </c>
       <c r="I3" s="1">
-        <v>44440.63584490741</v>
+        <v>44441.3365162037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>613046aa07a0523de0be3517</v>
+        <v>6130cde2e1d8093b00f3b8ed</v>
       </c>
       <c r="B4" t="str">
         <v>192.168.100.7</v>
@@ -479,7 +479,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="str">
-        <v>hung</v>
+        <v>hung-1</v>
       </c>
       <c r="E4" t="str">
         <v>hung</v>
@@ -491,39 +491,39 @@
         <v>Off</v>
       </c>
       <c r="H4" s="1">
-        <v>44441.15011574074</v>
+        <v>44441.55076388889</v>
       </c>
       <c r="I4" s="1">
-        <v>44441.15011574074</v>
+        <v>44441.55076388889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>613046bd07a0523de0be351e</v>
+        <v>6130ce00e1d8093b00f3b8f4</v>
       </c>
       <c r="B5" t="str">
-        <v>192.168.1.100</v>
+        <v>192.168.100.7</v>
       </c>
       <c r="C5" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="str">
-        <v>12345</v>
+        <v>hung-1</v>
       </c>
       <c r="E5" t="str">
-        <v>12</v>
+        <v>hung</v>
       </c>
       <c r="F5" t="str">
-        <v>1234</v>
+        <v>123456</v>
       </c>
       <c r="G5" t="str">
         <v>Off</v>
       </c>
       <c r="H5" s="1">
-        <v>44441.15033564815</v>
+        <v>44441.55111111111</v>
       </c>
       <c r="I5" s="1">
-        <v>44441.15033564815</v>
+        <v>44441.55111111111</v>
       </c>
     </row>
   </sheetData>

--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,65 +412,65 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>613046bd07a0523de0be351e</v>
+        <v>6132e64eca10a324f84d95e6</v>
       </c>
       <c r="B2" t="str">
-        <v>192.168.1.100</v>
+        <v>192.168.100.7</v>
       </c>
       <c r="C2" t="str">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" t="str">
-        <v>12345</v>
+        <v>1234</v>
       </c>
       <c r="E2" t="str">
-        <v>12</v>
+        <v>hung</v>
       </c>
       <c r="F2" t="str">
-        <v>1234</v>
+        <v>123456</v>
       </c>
       <c r="G2" t="str">
         <v>Off</v>
       </c>
       <c r="H2" s="1">
-        <v>44441.15033564815</v>
+        <v>44443.14016203704</v>
       </c>
       <c r="I2" s="1">
-        <v>44441.15033564815</v>
+        <v>44443.14016203704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6130859352505419f088e21a</v>
+        <v>6132ec30fb64553bb4156b45</v>
       </c>
       <c r="B3" t="str">
         <v>192.168.100.7</v>
       </c>
       <c r="C3" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="str">
-        <v>server-2</v>
+        <v>asss</v>
       </c>
       <c r="E3" t="str">
-        <v>hung</v>
+        <v>123456</v>
       </c>
       <c r="F3" t="str">
-        <v>123456</v>
+        <v>áds</v>
       </c>
       <c r="G3" t="str">
         <v>Off</v>
       </c>
       <c r="H3" s="1">
-        <v>44441.3365162037</v>
+        <v>44443.15760416666</v>
       </c>
       <c r="I3" s="1">
-        <v>44441.3365162037</v>
+        <v>44443.15760416666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6130cde2e1d8093b00f3b8ed</v>
+        <v>6132ec34fb64553bb4156b4c</v>
       </c>
       <c r="B4" t="str">
         <v>192.168.100.7</v>
@@ -479,56 +479,27 @@
         <v>22</v>
       </c>
       <c r="D4" t="str">
-        <v>hung-1</v>
+        <v>asss</v>
       </c>
       <c r="E4" t="str">
-        <v>hung</v>
+        <v>123456</v>
       </c>
       <c r="F4" t="str">
-        <v>123456</v>
+        <v>áds</v>
       </c>
       <c r="G4" t="str">
         <v>Off</v>
       </c>
       <c r="H4" s="1">
-        <v>44441.55076388889</v>
+        <v>44443.157638888886</v>
       </c>
       <c r="I4" s="1">
-        <v>44441.55076388889</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>6130ce00e1d8093b00f3b8f4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>192.168.100.7</v>
-      </c>
-      <c r="C5" t="str">
-        <v>22</v>
-      </c>
-      <c r="D5" t="str">
-        <v>hung-1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>hung</v>
-      </c>
-      <c r="F5" t="str">
-        <v>123456</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Off</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44441.55111111111</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44441.55111111111</v>
+        <v>44443.157638888886</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>192.168.100.7</v>
       </c>
       <c r="C2" t="str">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" t="str">
         <v>1234</v>
@@ -430,13 +430,13 @@
         <v>123456</v>
       </c>
       <c r="G2" t="str">
-        <v>Off</v>
+        <v>On</v>
       </c>
       <c r="H2" s="1">
         <v>44443.14016203704</v>
       </c>
       <c r="I2" s="1">
-        <v>44443.14016203704</v>
+        <v>44443.342152777775</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
         <v>192.168.100.7</v>
       </c>
       <c r="C3" t="str">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" t="str">
         <v>asss</v>
@@ -465,7 +465,7 @@
         <v>44443.15760416666</v>
       </c>
       <c r="I3" s="1">
-        <v>44443.15760416666</v>
+        <v>44443.33248842593</v>
       </c>
     </row>
     <row r="4">
@@ -497,9 +497,67 @@
         <v>44443.157638888886</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>613328cd21ef7e34e409ac41</v>
+      </c>
+      <c r="B5" t="str">
+        <v>192.168.100.7</v>
+      </c>
+      <c r="C5" t="str">
+        <v>30</v>
+      </c>
+      <c r="D5" t="str">
+        <v>ádasdasd</v>
+      </c>
+      <c r="E5" t="str">
+        <v>aaaaaa</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ádasdasd</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44443.3371875</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44443.3371875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>613328d421ef7e34e409ac48</v>
+      </c>
+      <c r="B6" t="str">
+        <v>192.168.100.7</v>
+      </c>
+      <c r="C6" t="str">
+        <v>31</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ádasdasd</v>
+      </c>
+      <c r="E6" t="str">
+        <v>aaaaaa</v>
+      </c>
+      <c r="F6" t="str">
+        <v>ádasdasd</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44443.33726851852</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44443.33726851852</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -555,9 +555,38 @@
         <v>44443.33726851852</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>61332b150d18452ee427692e</v>
+      </c>
+      <c r="B7" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>22</v>
+      </c>
+      <c r="D7" t="str">
+        <v>12345</v>
+      </c>
+      <c r="E7" t="str">
+        <v>aaaaa</v>
+      </c>
+      <c r="F7" t="str">
+        <v>aaaaaa</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44443.34394675926</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44443.34394675926</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,48 +412,48 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6132e64eca10a324f84d95e6</v>
+        <v>6140a958209c3e3f78ea2f33</v>
       </c>
       <c r="B2" t="str">
         <v>192.168.100.7</v>
       </c>
       <c r="C2" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="str">
-        <v>1234</v>
+        <v>â</v>
       </c>
       <c r="E2" t="str">
-        <v>hung</v>
+        <v>asd</v>
       </c>
       <c r="F2" t="str">
-        <v>123456</v>
+        <v>ấ</v>
       </c>
       <c r="G2" t="str">
-        <v>On</v>
+        <v>Off</v>
       </c>
       <c r="H2" s="1">
-        <v>44443.14016203704</v>
+        <v>44453.57879629629</v>
       </c>
       <c r="I2" s="1">
-        <v>44443.342152777775</v>
+        <v>44453.58008101852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6132ec30fb64553bb4156b45</v>
+        <v>6140ab1fd03ea343b8daa9b2</v>
       </c>
       <c r="B3" t="str">
         <v>192.168.100.7</v>
       </c>
       <c r="C3" t="str">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" t="str">
-        <v>asss</v>
+        <v>22</v>
       </c>
       <c r="E3" t="str">
-        <v>123456</v>
+        <v>22</v>
       </c>
       <c r="F3" t="str">
         <v>áds</v>
@@ -462,131 +462,247 @@
         <v>Off</v>
       </c>
       <c r="H3" s="1">
-        <v>44443.15760416666</v>
+        <v>44453.5840625</v>
       </c>
       <c r="I3" s="1">
-        <v>44443.33248842593</v>
+        <v>44453.5840625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6132ec34fb64553bb4156b4c</v>
+        <v>6140ab84ed22ab3548e2bba6</v>
       </c>
       <c r="B4" t="str">
-        <v>192.168.100.7</v>
+        <v>192.198.100.45</v>
       </c>
       <c r="C4" t="str">
-        <v>22</v>
+        <v>123456</v>
       </c>
       <c r="D4" t="str">
-        <v>asss</v>
+        <v>ádasd</v>
       </c>
       <c r="E4" t="str">
-        <v>123456</v>
+        <v>ádsad</v>
       </c>
       <c r="F4" t="str">
-        <v>áds</v>
+        <v>ádasd</v>
       </c>
       <c r="G4" t="str">
         <v>Off</v>
       </c>
       <c r="H4" s="1">
-        <v>44443.157638888886</v>
+        <v>44453.585231481484</v>
       </c>
       <c r="I4" s="1">
-        <v>44443.157638888886</v>
+        <v>44453.585231481484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>613328cd21ef7e34e409ac41</v>
+        <v>6140abd6ed22ab3548e2bbaf</v>
       </c>
       <c r="B5" t="str">
-        <v>192.168.100.7</v>
+        <v>192.168.100.2</v>
       </c>
       <c r="C5" t="str">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" t="str">
-        <v>ádasdasd</v>
+        <v>333</v>
       </c>
       <c r="E5" t="str">
-        <v>aaaaaa</v>
+        <v>11</v>
       </c>
       <c r="F5" t="str">
-        <v>ádasdasd</v>
+        <v>222</v>
       </c>
       <c r="G5" t="str">
         <v>Off</v>
       </c>
       <c r="H5" s="1">
-        <v>44443.3371875</v>
+        <v>44453.586180555554</v>
       </c>
       <c r="I5" s="1">
-        <v>44443.3371875</v>
+        <v>44453.586180555554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>613328d421ef7e34e409ac48</v>
+        <v>6140acabed22ab3548e2bbb8</v>
       </c>
       <c r="B6" t="str">
-        <v>192.168.100.7</v>
+        <v>192.168.1.7</v>
       </c>
       <c r="C6" t="str">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D6" t="str">
-        <v>ádasdasd</v>
+        <v>12211</v>
       </c>
       <c r="E6" t="str">
-        <v>aaaaaa</v>
+        <v>Duc Hung</v>
       </c>
       <c r="F6" t="str">
-        <v>ádasdasd</v>
+        <v>server-2</v>
       </c>
       <c r="G6" t="str">
         <v>Off</v>
       </c>
       <c r="H6" s="1">
-        <v>44443.33726851852</v>
+        <v>44453.58864583333</v>
       </c>
       <c r="I6" s="1">
-        <v>44443.33726851852</v>
+        <v>44453.58864583333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>61332b150d18452ee427692e</v>
+        <v>6140acdfed22ab3548e2bbc1</v>
       </c>
       <c r="B7" t="str">
+        <v>192.168.100.7</v>
+      </c>
+      <c r="C7" t="str">
+        <v>12211</v>
+      </c>
+      <c r="D7" t="str">
+        <v>ádasd</v>
+      </c>
+      <c r="E7" t="str">
+        <v>22</v>
+      </c>
+      <c r="F7" t="str">
+        <v>aaaaa</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44453.58924768519</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44453.58924768519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>6140ad3bed22ab3548e2bbcc</v>
+      </c>
+      <c r="B8" t="str">
         <v>192.168.100.8</v>
       </c>
-      <c r="C7" t="str">
-        <v>22</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="C8" t="str">
+        <v>12</v>
+      </c>
+      <c r="D8" t="str">
+        <v>cc</v>
+      </c>
+      <c r="E8" t="str">
+        <v>aa</v>
+      </c>
+      <c r="F8" t="str">
+        <v>bb</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44453.5903125</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44453.5903125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>6140adc0ed22ab3548e2bbdc</v>
+      </c>
+      <c r="B9" t="str">
+        <v>192.168.101.5</v>
+      </c>
+      <c r="C9" t="str">
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
         <v>12345</v>
       </c>
-      <c r="E7" t="str">
-        <v>aaaaa</v>
-      </c>
-      <c r="F7" t="str">
-        <v>aaaaaa</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Off</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44443.34394675926</v>
-      </c>
-      <c r="I7" s="1">
-        <v>44443.34394675926</v>
+      <c r="E9" t="str">
+        <v>ass</v>
+      </c>
+      <c r="F9" t="str">
+        <v>asd</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44453.59185185185</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44453.59185185185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>6140adf1ed22ab3548e2bbe5</v>
+      </c>
+      <c r="B10" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="C10" t="str">
+        <v>12120</v>
+      </c>
+      <c r="D10" t="str">
+        <v>cccc</v>
+      </c>
+      <c r="E10" t="str">
+        <v>aaa</v>
+      </c>
+      <c r="F10" t="str">
+        <v>bbbb</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44453.59241898148</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44453.59241898148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>6140aee953ad3145c8bb56b7</v>
+      </c>
+      <c r="B11" t="str">
+        <v>192.168.100.7</v>
+      </c>
+      <c r="C11" t="str">
+        <v>254</v>
+      </c>
+      <c r="D11" t="str">
+        <v>12345</v>
+      </c>
+      <c r="E11" t="str">
+        <v>aaa</v>
+      </c>
+      <c r="F11" t="str">
+        <v>bnbn</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44453.595289351855</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44453.5958912037</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,297 +412,268 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6140a958209c3e3f78ea2f33</v>
+        <v>6140ab1fd03ea343b8daa9b2</v>
       </c>
       <c r="B2" t="str">
         <v>192.168.100.7</v>
       </c>
       <c r="C2" t="str">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="str">
-        <v>â</v>
+        <v>22</v>
       </c>
       <c r="E2" t="str">
-        <v>asd</v>
+        <v>22</v>
       </c>
       <c r="F2" t="str">
-        <v>ấ</v>
+        <v>áds</v>
       </c>
       <c r="G2" t="str">
         <v>Off</v>
       </c>
       <c r="H2" s="1">
-        <v>44453.57879629629</v>
+        <v>44453.5840625</v>
       </c>
       <c r="I2" s="1">
-        <v>44453.58008101852</v>
+        <v>44453.5840625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>6140ab1fd03ea343b8daa9b2</v>
+        <v>6140ab84ed22ab3548e2bba6</v>
       </c>
       <c r="B3" t="str">
-        <v>192.168.100.7</v>
+        <v>192.198.100.45</v>
       </c>
       <c r="C3" t="str">
-        <v>22</v>
+        <v>123456</v>
       </c>
       <c r="D3" t="str">
-        <v>22</v>
+        <v>ádasd</v>
       </c>
       <c r="E3" t="str">
-        <v>22</v>
+        <v>ádsad</v>
       </c>
       <c r="F3" t="str">
-        <v>áds</v>
+        <v>ádasd</v>
       </c>
       <c r="G3" t="str">
         <v>Off</v>
       </c>
       <c r="H3" s="1">
-        <v>44453.5840625</v>
+        <v>44453.585231481484</v>
       </c>
       <c r="I3" s="1">
-        <v>44453.5840625</v>
+        <v>44453.585231481484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>6140ab84ed22ab3548e2bba6</v>
+        <v>6140abd6ed22ab3548e2bbaf</v>
       </c>
       <c r="B4" t="str">
-        <v>192.198.100.45</v>
+        <v>192.168.100.2</v>
       </c>
       <c r="C4" t="str">
-        <v>123456</v>
+        <v>22</v>
       </c>
       <c r="D4" t="str">
-        <v>ádasd</v>
+        <v>333</v>
       </c>
       <c r="E4" t="str">
-        <v>ádsad</v>
+        <v>11</v>
       </c>
       <c r="F4" t="str">
-        <v>ádasd</v>
+        <v>222</v>
       </c>
       <c r="G4" t="str">
         <v>Off</v>
       </c>
       <c r="H4" s="1">
-        <v>44453.585231481484</v>
+        <v>44453.586180555554</v>
       </c>
       <c r="I4" s="1">
-        <v>44453.585231481484</v>
+        <v>44453.586180555554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>6140abd6ed22ab3548e2bbaf</v>
+        <v>6140acabed22ab3548e2bbb8</v>
       </c>
       <c r="B5" t="str">
-        <v>192.168.100.2</v>
+        <v>192.168.1.7</v>
       </c>
       <c r="C5" t="str">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D5" t="str">
-        <v>333</v>
+        <v>12211</v>
       </c>
       <c r="E5" t="str">
-        <v>11</v>
+        <v>Duc Hung</v>
       </c>
       <c r="F5" t="str">
-        <v>222</v>
+        <v>server-2</v>
       </c>
       <c r="G5" t="str">
         <v>Off</v>
       </c>
       <c r="H5" s="1">
-        <v>44453.586180555554</v>
+        <v>44453.58864583333</v>
       </c>
       <c r="I5" s="1">
-        <v>44453.586180555554</v>
+        <v>44453.58864583333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6140acabed22ab3548e2bbb8</v>
+        <v>6140acdfed22ab3548e2bbc1</v>
       </c>
       <c r="B6" t="str">
-        <v>192.168.1.7</v>
+        <v>192.168.100.7</v>
       </c>
       <c r="C6" t="str">
-        <v>121</v>
+        <v>12211</v>
       </c>
       <c r="D6" t="str">
-        <v>12211</v>
+        <v>ádasd</v>
       </c>
       <c r="E6" t="str">
-        <v>Duc Hung</v>
+        <v>22</v>
       </c>
       <c r="F6" t="str">
-        <v>server-2</v>
+        <v>aaaaa</v>
       </c>
       <c r="G6" t="str">
         <v>Off</v>
       </c>
       <c r="H6" s="1">
-        <v>44453.58864583333</v>
+        <v>44453.58924768519</v>
       </c>
       <c r="I6" s="1">
-        <v>44453.58864583333</v>
+        <v>44453.58924768519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6140acdfed22ab3548e2bbc1</v>
+        <v>6140ad3bed22ab3548e2bbcc</v>
       </c>
       <c r="B7" t="str">
-        <v>192.168.100.7</v>
+        <v>192.168.100.8</v>
       </c>
       <c r="C7" t="str">
-        <v>12211</v>
+        <v>12</v>
       </c>
       <c r="D7" t="str">
-        <v>ádasd</v>
+        <v>cc</v>
       </c>
       <c r="E7" t="str">
-        <v>22</v>
+        <v>aa</v>
       </c>
       <c r="F7" t="str">
-        <v>aaaaa</v>
+        <v>bb</v>
       </c>
       <c r="G7" t="str">
         <v>Off</v>
       </c>
       <c r="H7" s="1">
-        <v>44453.58924768519</v>
+        <v>44453.5903125</v>
       </c>
       <c r="I7" s="1">
-        <v>44453.58924768519</v>
+        <v>44453.5903125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6140ad3bed22ab3548e2bbcc</v>
+        <v>6140adc0ed22ab3548e2bbdc</v>
       </c>
       <c r="B8" t="str">
-        <v>192.168.100.8</v>
+        <v>192.168.101.5</v>
       </c>
       <c r="C8" t="str">
         <v>12</v>
       </c>
       <c r="D8" t="str">
-        <v>cc</v>
+        <v>12345</v>
       </c>
       <c r="E8" t="str">
-        <v>aa</v>
+        <v>ass</v>
       </c>
       <c r="F8" t="str">
-        <v>bb</v>
+        <v>asd</v>
       </c>
       <c r="G8" t="str">
         <v>Off</v>
       </c>
       <c r="H8" s="1">
-        <v>44453.5903125</v>
+        <v>44453.59185185185</v>
       </c>
       <c r="I8" s="1">
-        <v>44453.5903125</v>
+        <v>44453.59185185185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>6140adc0ed22ab3548e2bbdc</v>
+        <v>6140adf1ed22ab3548e2bbe5</v>
       </c>
       <c r="B9" t="str">
-        <v>192.168.101.5</v>
+        <v>192.168.100.8</v>
       </c>
       <c r="C9" t="str">
-        <v>12</v>
+        <v>12120</v>
       </c>
       <c r="D9" t="str">
-        <v>12345</v>
+        <v>cccc</v>
       </c>
       <c r="E9" t="str">
-        <v>ass</v>
+        <v>aaa</v>
       </c>
       <c r="F9" t="str">
-        <v>asd</v>
+        <v>bbbb</v>
       </c>
       <c r="G9" t="str">
         <v>Off</v>
       </c>
       <c r="H9" s="1">
-        <v>44453.59185185185</v>
+        <v>44453.59241898148</v>
       </c>
       <c r="I9" s="1">
-        <v>44453.59185185185</v>
+        <v>44453.59241898148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6140adf1ed22ab3548e2bbe5</v>
+        <v>6140aee953ad3145c8bb56b7</v>
       </c>
       <c r="B10" t="str">
-        <v>192.168.100.8</v>
+        <v>192.168.100.7</v>
       </c>
       <c r="C10" t="str">
-        <v>12120</v>
+        <v>254</v>
       </c>
       <c r="D10" t="str">
-        <v>cccc</v>
+        <v>12345</v>
       </c>
       <c r="E10" t="str">
         <v>aaa</v>
       </c>
       <c r="F10" t="str">
-        <v>bbbb</v>
+        <v>bnbn</v>
       </c>
       <c r="G10" t="str">
         <v>Off</v>
       </c>
       <c r="H10" s="1">
-        <v>44453.59241898148</v>
+        <v>44453.595289351855</v>
       </c>
       <c r="I10" s="1">
-        <v>44453.59241898148</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>6140aee953ad3145c8bb56b7</v>
-      </c>
-      <c r="B11" t="str">
-        <v>192.168.100.7</v>
-      </c>
-      <c r="C11" t="str">
-        <v>254</v>
-      </c>
-      <c r="D11" t="str">
-        <v>12345</v>
-      </c>
-      <c r="E11" t="str">
-        <v>aaa</v>
-      </c>
-      <c r="F11" t="str">
-        <v>bnbn</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Off</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44453.595289351855</v>
-      </c>
-      <c r="I11" s="1">
         <v>44453.5958912037</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/public/server.xlsx
+++ b/backend/public/server.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,9 +671,38 @@
         <v>44453.5958912037</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>62d42eaf939fcc53786b6209</v>
+      </c>
+      <c r="B11" t="str">
+        <v>192.168.12.1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>22</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1111</v>
+      </c>
+      <c r="E11" t="str">
+        <v>123</v>
+      </c>
+      <c r="F11" t="str">
+        <v>111</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Off</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44759.65684027778</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44759.65684027778</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>